--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a75_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1155.6677614347686</v>
+        <v>-493.878976955939</v>
       </c>
       <c r="C2">
-        <v>8.516845318</v>
+        <v>38.668986476</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1160.3422218637184</v>
+        <v>-493.77701315914567</v>
       </c>
       <c r="C3">
-        <v>0.150975306</v>
+        <v>27.811950589</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1165.4039138542048</v>
+        <v>-494.66977709988043</v>
       </c>
       <c r="C4">
-        <v>0.186143656</v>
+        <v>27.404425668</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1182.6806093240584</v>
+        <v>-501.035321969408</v>
       </c>
       <c r="C5">
-        <v>0.169757168</v>
+        <v>34.77655332</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1151.5913951159318</v>
+        <v>-489.92059686850763</v>
       </c>
       <c r="C6">
-        <v>0.150039447</v>
+        <v>29.587393781</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1139.5270312436296</v>
+        <v>-485.414226853377</v>
       </c>
       <c r="C7">
-        <v>0.180692961</v>
+        <v>27.560188409</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1140.4707892873744</v>
+        <v>-482.083576119485</v>
       </c>
       <c r="C8">
-        <v>0.163187721</v>
+        <v>27.498456065</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H8">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1170.8393993377722</v>
+        <v>-494.21506369912964</v>
       </c>
       <c r="C9">
-        <v>0.184663536</v>
+        <v>26.10803924</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1159.2599484385823</v>
+        <v>-490.832160405779</v>
       </c>
       <c r="C10">
-        <v>0.169050714</v>
+        <v>25.501411398</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1144.5087727057708</v>
+        <v>-483.7629406050496</v>
       </c>
       <c r="C11">
-        <v>0.166365997</v>
+        <v>28.892752799</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.037743414572509765</v>
+        <v>0.09784357218005371</v>
       </c>
       <c r="E2">
-        <v>12.12085</v>
+        <v>96.20736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1159.2599484385823</v>
+        <v>-490.832160405779</v>
       </c>
       <c r="C3">
-        <v>3.9227383944293784e-14</v>
+        <v>0.08075228339437472</v>
       </c>
       <c r="D3">
-        <v>0.0485212333515625</v>
+        <v>24.460034165650878</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.042700685795410157</v>
+        <v>0.04224293682800293</v>
       </c>
       <c r="E2">
-        <v>11.57025</v>
+        <v>98.44632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1144.5087727057708</v>
+        <v>-483.7629406050496</v>
       </c>
       <c r="C3">
-        <v>5.959945809039208e-14</v>
+        <v>0.005089662605535949</v>
       </c>
       <c r="D3">
-        <v>0.06687227427392578</v>
+        <v>27.80842812134497</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8911302777954102</v>
+        <v>0.9038910552598877</v>
       </c>
       <c r="E2">
-        <v>11.77246</v>
+        <v>99.08423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1155.6677614347686</v>
+        <v>-493.878976955939</v>
       </c>
       <c r="C3">
-        <v>3.9349315267032554e-14</v>
+        <v>0.04833799192352749</v>
       </c>
       <c r="D3">
-        <v>0.059539775818359376</v>
+        <v>27.367358813684447</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.024779724287109374</v>
+        <v>0.0294631806673584</v>
       </c>
       <c r="E2">
-        <v>13.10262</v>
+        <v>95.63509</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1160.3422218637184</v>
+        <v>-493.77701315914567</v>
       </c>
       <c r="C3">
-        <v>1.9595397905801395e-14</v>
+        <v>0.08666480452799356</v>
       </c>
       <c r="D3">
-        <v>0.0553136855847168</v>
+        <v>26.90787779331445</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.05088602987182617</v>
+        <v>0.038805308395141604</v>
       </c>
       <c r="E2">
-        <v>12.38017</v>
+        <v>100.85053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1165.4039138542048</v>
+        <v>-494.66977709988043</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.06336260813586425</v>
+        <v>26.57219709200403</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04594262610888672</v>
+        <v>0.041510640416137695</v>
       </c>
       <c r="E2">
-        <v>12.32887</v>
+        <v>99.81853</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1182.6806093240584</v>
+        <v>-501.035321969408</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05132583633654785</v>
+        <v>33.91880251266113</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.028233390174682616</v>
+        <v>0.028890636715576172</v>
       </c>
       <c r="E2">
-        <v>10.96029</v>
+        <v>98.71058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1151.5913951159318</v>
+        <v>-489.92059686850763</v>
       </c>
       <c r="C3">
-        <v>1.9744301356152664e-14</v>
+        <v>0.075534987098851</v>
       </c>
       <c r="D3">
-        <v>0.053457042832641605</v>
+        <v>28.728123876605714</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04087978333630371</v>
+        <v>0.0285557579342041</v>
       </c>
       <c r="E2">
-        <v>12.49081</v>
+        <v>104.78776</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1139.5270312436296</v>
+        <v>-485.414226853377</v>
       </c>
       <c r="C3">
-        <v>1.995333758735556e-14</v>
+        <v>0.0993591357360752</v>
       </c>
       <c r="D3">
-        <v>0.07465220030297852</v>
+        <v>26.703456281239625</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0347633147779541</v>
+        <v>0.03830630346533203</v>
       </c>
       <c r="E2">
-        <v>11.05848</v>
+        <v>97.44194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1140.4707892873744</v>
+        <v>-482.083576119485</v>
       </c>
       <c r="C3">
-        <v>1.993682587743322e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05781658236865234</v>
+        <v>26.525512716603515</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.029690972536376953</v>
+        <v>0.037601323987670895</v>
       </c>
       <c r="E2">
-        <v>12.20523</v>
+        <v>99.48872</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1170.8393993377722</v>
+        <v>-494.21506369912964</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09294693622550741</v>
       </c>
       <c r="D3">
-        <v>0.07635944229418945</v>
+        <v>25.311735997545533</v>
       </c>
       <c r="E3">
         <v>0.0</v>
